--- a/TGIX_emEndpoint_640827.xlsx
+++ b/TGIX_emEndpoint_640827.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\[01] Standards\[04] Project TGIX\[25] TGIX_DGA_RC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BC0E10-A638-4E1B-96C2-3AAFED49800D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A39F52-7ED0-4EBE-8D3D-85E08E241CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2326" uniqueCount="1159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2401" uniqueCount="1204">
   <si>
     <t>Data Type</t>
   </si>
@@ -3512,6 +3512,141 @@
   </si>
   <si>
     <t>null</t>
+  </si>
+  <si>
+    <t>ศูนย์พักคอย อำเภอเมือง</t>
+  </si>
+  <si>
+    <t>หอประชุม อบต.กง</t>
+  </si>
+  <si>
+    <t>อบต.ไกรนอก</t>
+  </si>
+  <si>
+    <t>อบต.ไกรใน</t>
+  </si>
+  <si>
+    <t>อบต.ไกรกลาง</t>
+  </si>
+  <si>
+    <t>ศาลาวัดบ้านใหม่สุขเกษม หลังที่ 1,2</t>
+  </si>
+  <si>
+    <t>อาคารวัฒนธรรมเทศบาลตำบลกงไกรลาศ</t>
+  </si>
+  <si>
+    <t>โรงเรียนข่อยสองนาง</t>
+  </si>
+  <si>
+    <t>อาคารศูนย์พัฒนาเด็กเล็ก อบต.ดงเดือย</t>
+  </si>
+  <si>
+    <t>วัดโบสถ์ ม.1 ต.ไกรนอก</t>
+  </si>
+  <si>
+    <t>ตลาดชุมชนบ้านโป่งแค หมู่ที่ 7 ต.ไกรนอก</t>
+  </si>
+  <si>
+    <t>อาคารเอนกประสงค์ที่สาธารณะประโยชน์ ต.กกแรต หมู่ที่ 10</t>
+  </si>
+  <si>
+    <t>อาคารผู้สูงอายุ ม.3 ต.หนองตูม</t>
+  </si>
+  <si>
+    <t>วัดหนองตูม</t>
+  </si>
+  <si>
+    <t>อาคารเอนกประสงค์เอกชน ม.8 ต.ท่าฉนวน</t>
+  </si>
+  <si>
+    <t>PED_03_64001</t>
+  </si>
+  <si>
+    <t>PED_03_64002</t>
+  </si>
+  <si>
+    <t>PED_03_64003</t>
+  </si>
+  <si>
+    <t>PED_03_64004</t>
+  </si>
+  <si>
+    <t>PED_03_64005</t>
+  </si>
+  <si>
+    <t>PED_03_64006</t>
+  </si>
+  <si>
+    <t>PED_03_64007</t>
+  </si>
+  <si>
+    <t>PED_03_64008</t>
+  </si>
+  <si>
+    <t>PED_03_64009</t>
+  </si>
+  <si>
+    <t>PED_03_64010</t>
+  </si>
+  <si>
+    <t>PED_03_64011</t>
+  </si>
+  <si>
+    <t>PED_03_64012</t>
+  </si>
+  <si>
+    <t>PED_03_64013</t>
+  </si>
+  <si>
+    <t>PED_03_64014</t>
+  </si>
+  <si>
+    <t>PED_03_62001</t>
+  </si>
+  <si>
+    <t>62001</t>
+  </si>
+  <si>
+    <t>64002</t>
+  </si>
+  <si>
+    <t>64003</t>
+  </si>
+  <si>
+    <t>64004</t>
+  </si>
+  <si>
+    <t>64005</t>
+  </si>
+  <si>
+    <t>64006</t>
+  </si>
+  <si>
+    <t>64007</t>
+  </si>
+  <si>
+    <t>64008</t>
+  </si>
+  <si>
+    <t>64009</t>
+  </si>
+  <si>
+    <t>64010</t>
+  </si>
+  <si>
+    <t>64011</t>
+  </si>
+  <si>
+    <t>64012</t>
+  </si>
+  <si>
+    <t>64013</t>
+  </si>
+  <si>
+    <t>64014</t>
+  </si>
+  <si>
+    <t>64001</t>
   </si>
 </sst>
 </file>
@@ -3606,7 +3741,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3662,6 +3797,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4114,11 +4255,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1A570B-8BB1-44C4-99BE-686DCC6EAFB0}">
-  <dimension ref="A1:J374"/>
+  <dimension ref="A1:J389"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A344" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A374" sqref="A374:J374"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C387" sqref="C387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13943,6 +14084,354 @@
       <c r="I374" s="28"/>
       <c r="J374" s="28"/>
     </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A375" s="9" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B375" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="C375" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="D375" s="11" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E375" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F375" s="11">
+        <v>62</v>
+      </c>
+      <c r="G375" s="11">
+        <v>6201</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A376" s="9" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B376" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="C376" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="D376" s="11" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E376" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F376" s="11">
+        <v>64</v>
+      </c>
+      <c r="G376" s="11">
+        <v>6404</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A377" s="9" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B377" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="C377" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="D377" s="11" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E377" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F377" s="11">
+        <v>64</v>
+      </c>
+      <c r="G377" s="11">
+        <v>6404</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A378" s="9" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B378" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="C378" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="D378" s="11" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E378" s="29" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F378" s="11">
+        <v>64</v>
+      </c>
+      <c r="G378" s="11">
+        <v>6404</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A379" s="9" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B379" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="C379" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="D379" s="11" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E379" s="29" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F379" s="11">
+        <v>64</v>
+      </c>
+      <c r="G379" s="11">
+        <v>6404</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A380" s="9" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B380" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="C380" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="D380" s="11" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E380" s="29" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F380" s="11">
+        <v>64</v>
+      </c>
+      <c r="G380" s="11">
+        <v>6404</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A381" s="9" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B381" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="C381" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="D381" s="11" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E381" s="29" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F381" s="11">
+        <v>64</v>
+      </c>
+      <c r="G381" s="11">
+        <v>6404</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A382" s="9" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B382" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="C382" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="D382" s="11" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E382" s="29" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F382" s="11">
+        <v>64</v>
+      </c>
+      <c r="G382" s="11">
+        <v>6404</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A383" s="9" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B383" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="C383" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="D383" s="11" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E383" s="29" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F383" s="11">
+        <v>64</v>
+      </c>
+      <c r="G383" s="11">
+        <v>6404</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A384" s="9" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B384" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="C384" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="D384" s="11" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E384" s="29" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F384" s="11">
+        <v>64</v>
+      </c>
+      <c r="G384" s="11">
+        <v>6404</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A385" s="9" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B385" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="C385" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="D385" s="11" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E385" s="29" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F385" s="11">
+        <v>64</v>
+      </c>
+      <c r="G385" s="11">
+        <v>6404</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A386" s="9" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B386" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="C386" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="D386" s="11" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E386" s="29" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F386" s="11">
+        <v>64</v>
+      </c>
+      <c r="G386" s="11">
+        <v>6404</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A387" s="9" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B387" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="C387" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="D387" s="11" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E387" s="29" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F387" s="11">
+        <v>64</v>
+      </c>
+      <c r="G387" s="11">
+        <v>6404</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A388" s="9" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B388" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="C388" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="D388" s="11" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E388" s="29" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F388" s="11">
+        <v>64</v>
+      </c>
+      <c r="G388" s="11">
+        <v>6404</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A389" s="12" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B389" s="12" t="s">
+        <v>617</v>
+      </c>
+      <c r="C389" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="D389" s="13" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E389" s="30" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F389" s="13">
+        <v>64</v>
+      </c>
+      <c r="G389" s="13">
+        <v>6404</v>
+      </c>
+      <c r="H389" s="18"/>
+      <c r="I389" s="18"/>
+      <c r="J389" s="18"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
